--- a/unitTests/source/xodel/unitRelations.xlsx
+++ b/unitTests/source/xodel/unitRelations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Documents/GitHub/xule/unitTests/source/xodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5FE7A7-8F7F-9F4B-B123-AF219A484002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E348FF-0CC6-0B4B-9F3B-28CFC1D98217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
+    <workbookView xWindow="3500" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>sqft</t>
+  </si>
+  <si>
+    <t>sqmi</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>sqyd</t>
+  </si>
+  <si>
+    <t>yd</t>
+  </si>
+  <si>
+    <t>Boe</t>
+  </si>
+  <si>
+    <t>MBoe</t>
+  </si>
+  <si>
+    <t>nstarget</t>
+  </si>
+  <si>
+    <t>utr</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>kilo</t>
+  </si>
+  <si>
+    <t>MMBoe</t>
+  </si>
+  <si>
+    <t>nsSource</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>http://www.xbrl.org/2023/arcrole/unit-squared</t>
+  </si>
+  <si>
+    <t>http://www.xbrl.org/2023/arcrole/unit-multiplied</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>nmi</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>http://www.xbrl.org/2023/arcrole/converted-convertee</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,12 +489,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ED81D-0876-FA4F-A294-6F37A8E5F936}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D9:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="49.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0.30480000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>1609.3440000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>0.91439999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2DEAE640-A4F7-274B-A85F-8213374A729B}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{39E835F7-94BF-EF44-8900-C6861329EFA5}"/>
+    <hyperlink ref="D3:D4" r:id="rId3" display="http://www.xbrl.org/2023/arcrole/unit-squared" xr:uid="{73F1BA5E-E860-C348-8F46-6133AC94EBD8}"/>
+    <hyperlink ref="D6:D7" r:id="rId4" display="http://www.xbrl.org/2023/arcrole/unit-multiplied" xr:uid="{BF5BD8D3-16E3-874B-9007-FB314BFD6705}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{6893E687-6BEF-474D-BEF9-D46B2694E477}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{40F556B8-A273-6240-AE31-AB88CB04FEF3}"/>
+    <hyperlink ref="D11:D15" r:id="rId7" display="http://www.xbrl.org/2023/arcrole/converted-convertee" xr:uid="{A612DDA1-092B-024E-94D2-A1D2EF66ACA0}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{0217D799-27DA-7F41-B8FB-10E6D5F6DCDD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/unitTests/source/xodel/unitRelations.xlsx
+++ b/unitTests/source/xodel/unitRelations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Documents/GitHub/xule/unitTests/source/xodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E348FF-0CC6-0B4B-9F3B-28CFC1D98217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7893C-006C-484C-93CA-05369DF95622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
+    <workbookView xWindow="3500" yWindow="1700" windowWidth="27720" windowHeight="18000" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>Relationship</t>
   </si>
@@ -120,6 +120,63 @@
   </si>
   <si>
     <t>http://www.xbrl.org/2023/arcrole/converted-convertee</t>
+  </si>
+  <si>
+    <t>perShareItemType</t>
+  </si>
+  <si>
+    <t>dtr</t>
+  </si>
+  <si>
+    <t>http://www.xbrl.org/2023/arcrole/datatype-denominator</t>
+  </si>
+  <si>
+    <t>sharesItemType</t>
+  </si>
+  <si>
+    <t>http://www.xbrl.org/2023/arcrole/datatype-numerator</t>
+  </si>
+  <si>
+    <t>monetaryItemType</t>
+  </si>
+  <si>
+    <t>pureItemType</t>
+  </si>
+  <si>
+    <t>flowItemType</t>
+  </si>
+  <si>
+    <t>durationItemType</t>
+  </si>
+  <si>
+    <t>volumeItemType</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t>aft</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>irradianceItemType</t>
+  </si>
+  <si>
+    <t>powerItemType</t>
+  </si>
+  <si>
+    <t>areaItemType</t>
+  </si>
+  <si>
+    <t>densityItemType</t>
+  </si>
+  <si>
+    <t>massItemType</t>
   </si>
 </sst>
 </file>
@@ -489,15 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ED81D-0876-FA4F-A294-6F37A8E5F936}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="49.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -844,6 +903,326 @@
       <c r="G15">
         <v>1000</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>4046.873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>1233.4892384681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -855,6 +1234,14 @@
     <hyperlink ref="D10" r:id="rId6" xr:uid="{40F556B8-A273-6240-AE31-AB88CB04FEF3}"/>
     <hyperlink ref="D11:D15" r:id="rId7" display="http://www.xbrl.org/2023/arcrole/converted-convertee" xr:uid="{A612DDA1-092B-024E-94D2-A1D2EF66ACA0}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{0217D799-27DA-7F41-B8FB-10E6D5F6DCDD}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{5B478A14-C288-A741-9B7B-7726B6E1DBCB}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{454AF53F-7D9C-4A42-BC3E-FDFB300A9442}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{71297D67-3CF6-CA4A-987E-5D115E5D3D4E}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{BB976F8F-7018-C34F-8CF1-7A8418C75DFD}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{989C03C7-459C-9D4D-8EA5-23800639A714}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{DDB86AC3-AD5A-834C-9075-532E600195A6}"/>
+    <hyperlink ref="D26" r:id="rId15" xr:uid="{7BB12E92-7B07-E343-9C31-B3004F4C43EA}"/>
+    <hyperlink ref="D28" r:id="rId16" xr:uid="{956F31D5-D638-DD4C-BC11-DCF8D0642C98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/unitTests/source/xodel/unitRelations.xlsx
+++ b/unitTests/source/xodel/unitRelations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Documents/GitHub/xule/unitTests/source/xodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A7893C-006C-484C-93CA-05369DF95622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B445A-9460-774D-B46F-845EA9D4E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1700" windowWidth="27720" windowHeight="18000" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
+    <workbookView xWindow="4020" yWindow="1820" windowWidth="29800" windowHeight="18960" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="80">
   <si>
     <t>Relationship</t>
   </si>
@@ -177,13 +177,112 @@
   </si>
   <si>
     <t>massItemType</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Btu</t>
+  </si>
+  <si>
+    <t>ft_lb</t>
+  </si>
+  <si>
+    <t>Mcfe</t>
+  </si>
+  <si>
+    <t>MMBTU</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ozt</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>oz</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>bbl</t>
+  </si>
+  <si>
+    <t>ft3</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>MBbls</t>
+  </si>
+  <si>
+    <t>Mcf</t>
+  </si>
+  <si>
+    <t>MMBbls</t>
+  </si>
+  <si>
+    <t>MMcf</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>kJ</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>mJ</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>Wh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,6 +300,17 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Math"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,10 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,20 +659,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ED81D-0876-FA4F-A294-6F37A8E5F936}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="49.83203125" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -582,7 +696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -605,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -628,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -651,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -674,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -697,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -720,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -743,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -766,7 +880,7 @@
         <v>0.30480000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -789,7 +903,7 @@
         <v>1609.3440000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -812,7 +926,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -835,7 +949,7 @@
         <v>0.91439999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -858,7 +972,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -881,7 +995,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -904,7 +1018,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -927,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -950,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -973,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -996,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1019,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1042,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1065,7 +1179,7 @@
         <v>4046.873</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1088,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1111,7 +1225,7 @@
         <v>1233.4892384681</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1134,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1157,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1180,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1203,28 +1317,813 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="2"/>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>9.2903040000000006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>2589988.1103360001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.83612735999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>6117863200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1055.056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.3558179483313999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4">
+        <v>6117863200000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1087200000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5">
+        <v>6117863200000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>1054500000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.45359237000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3.1103476800000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1">
+        <v>907.18474000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3">
+        <v>745.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.1589873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2.8316846592000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3.7854120000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3">
+        <v>158.98729492999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <v>28316.846592000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3">
+        <v>158987.294933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3">
+        <v>28316.846592000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4.1840000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>3600000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>3.5239100000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <v>6894.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3">
+        <v>101325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>3600</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{2DEAE640-A4F7-274B-A85F-8213374A729B}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{39E835F7-94BF-EF44-8900-C6861329EFA5}"/>
@@ -1242,6 +2141,15 @@
     <hyperlink ref="D24" r:id="rId14" xr:uid="{DDB86AC3-AD5A-834C-9075-532E600195A6}"/>
     <hyperlink ref="D26" r:id="rId15" xr:uid="{7BB12E92-7B07-E343-9C31-B3004F4C43EA}"/>
     <hyperlink ref="D28" r:id="rId16" xr:uid="{956F31D5-D638-DD4C-BC11-DCF8D0642C98}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{ADB0DD48-ED52-3847-B65A-F1C7514EADB8}"/>
+    <hyperlink ref="D30" r:id="rId18" xr:uid="{313532D4-BCB8-CD4A-A1FA-29A67D890154}"/>
+    <hyperlink ref="D31" r:id="rId19" xr:uid="{3DE50D5C-42CD-AB43-97CD-322AB13D3A21}"/>
+    <hyperlink ref="D32" r:id="rId20" xr:uid="{41C77CFF-62A8-514E-BED6-9A46D336094A}"/>
+    <hyperlink ref="D33" r:id="rId21" xr:uid="{BD1BA6E4-1988-F64A-924C-5BC8F5C9EEC5}"/>
+    <hyperlink ref="D34:D38" r:id="rId22" display="http://www.xbrl.org/2023/arcrole/converted-convertee" xr:uid="{69AA4343-9F3A-0342-AA45-F15F5E691E4D}"/>
+    <hyperlink ref="D39:D59" r:id="rId23" display="http://www.xbrl.org/2023/arcrole/converted-convertee" xr:uid="{BF25258F-BF93-0842-BBFE-5DED93BC3189}"/>
+    <hyperlink ref="D60" r:id="rId24" xr:uid="{A7EC9FE9-6098-9649-954F-A48266CD6A9E}"/>
+    <hyperlink ref="D61:D63" r:id="rId25" display="http://www.xbrl.org/2023/arcrole/converted-convertee" xr:uid="{2B47E40C-6D6A-8B46-A180-C301F8A55E5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/unitTests/source/xodel/unitRelations.xlsx
+++ b/unitTests/source/xodel/unitRelations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Documents/GitHub/xule/unitTests/source/xodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B445A-9460-774D-B46F-845EA9D4E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB717AF-BA54-704E-95E5-EFD1FF7E516A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1820" windowWidth="29800" windowHeight="18960" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="29800" windowHeight="18960" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="conversion" sheetId="1" r:id="rId1"/>
+    <sheet name="newUnits" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
   <si>
     <t>Relationship</t>
   </si>
@@ -125,9 +126,6 @@
     <t>perShareItemType</t>
   </si>
   <si>
-    <t>dtr</t>
-  </si>
-  <si>
     <t>http://www.xbrl.org/2023/arcrole/datatype-denominator</t>
   </si>
   <si>
@@ -276,6 +274,54 @@
   </si>
   <si>
     <t>Wh</t>
+  </si>
+  <si>
+    <t>'utr:unitId'</t>
+  </si>
+  <si>
+    <t>'utr:unitName'</t>
+  </si>
+  <si>
+    <t>'utr:nsUnit'</t>
+  </si>
+  <si>
+    <t>'utr:itemType'</t>
+  </si>
+  <si>
+    <t>'utr:itemTypeDate'</t>
+  </si>
+  <si>
+    <t>'utr:symbol'</t>
+  </si>
+  <si>
+    <t>'utr:definition'</t>
+  </si>
+  <si>
+    <t>'utr:baseStandard'</t>
+  </si>
+  <si>
+    <t>'utr:status'</t>
+  </si>
+  <si>
+    <t>'utr:versionDate'</t>
+  </si>
+  <si>
+    <t>'@id'</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>http://www.xbrl.org/2009/utr</t>
+  </si>
+  <si>
+    <t>timeDurationItemType</t>
+  </si>
+  <si>
+    <t>dtr-concept</t>
   </si>
 </sst>
 </file>
@@ -661,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ED81D-0876-FA4F-A294-6F37A8E5F936}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1025,17 +1071,17 @@
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
+      <c r="F16" t="s">
+        <v>94</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1048,17 +1094,17 @@
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
+      <c r="C17" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
+      <c r="F17" t="s">
+        <v>94</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1069,19 +1115,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,19 +1138,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
+      <c r="F19" t="s">
+        <v>94</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1115,19 +1161,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
+      <c r="F20" t="s">
+        <v>94</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1138,19 +1184,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1170,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1184,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1207,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -1216,7 +1262,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1230,19 +1276,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1253,19 +1299,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>29</v>
+      <c r="F26" t="s">
+        <v>94</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1276,19 +1322,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1299,19 +1345,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>29</v>
+      <c r="F28" t="s">
+        <v>94</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1322,7 +1368,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -1345,7 +1391,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -1368,7 +1414,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -1391,7 +1437,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -1414,16 +1460,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
@@ -1437,7 +1483,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1446,7 +1492,7 @@
         <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
@@ -1460,7 +1506,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -1483,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -1492,7 +1538,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
@@ -1506,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -1529,7 +1575,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
@@ -1538,7 +1584,7 @@
         <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
@@ -1561,7 +1607,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
@@ -1575,7 +1621,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -1584,7 +1630,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
@@ -1598,7 +1644,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -1607,7 +1653,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
@@ -1621,7 +1667,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -1630,7 +1676,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
@@ -1644,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
@@ -1653,7 +1699,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
@@ -1667,7 +1713,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
@@ -1676,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>12</v>
@@ -1690,7 +1736,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>12</v>
@@ -1699,7 +1745,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
@@ -1713,7 +1759,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
@@ -1722,7 +1768,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>12</v>
@@ -1736,7 +1782,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -1745,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>12</v>
@@ -1759,7 +1805,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -1768,7 +1814,7 @@
         <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
@@ -1782,7 +1828,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -1791,7 +1837,7 @@
         <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>12</v>
@@ -1805,7 +1851,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -1814,7 +1860,7 @@
         <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>12</v>
@@ -1828,7 +1874,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
@@ -1837,7 +1883,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
@@ -1851,7 +1897,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -1860,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>12</v>
@@ -1874,7 +1920,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -1883,7 +1929,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>12</v>
@@ -1897,7 +1943,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
@@ -1906,7 +1952,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
@@ -1920,7 +1966,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
@@ -1929,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>12</v>
@@ -1943,7 +1989,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -1952,7 +1998,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>12</v>
@@ -1966,7 +2012,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -1975,7 +2021,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>12</v>
@@ -1989,7 +2035,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -1998,7 +2044,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>12</v>
@@ -2012,7 +2058,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2021,7 +2067,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>12</v>
@@ -2035,7 +2081,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2044,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>12</v>
@@ -2058,16 +2104,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>12</v>
@@ -2081,7 +2127,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
@@ -2090,7 +2136,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>12</v>
@@ -2104,7 +2150,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
@@ -2113,7 +2159,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>12</v>
@@ -2153,4 +2199,71 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F9C4B3-5C38-B04B-85A6-1F2DF86A5E58}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/unitTests/source/xodel/unitRelations.xlsx
+++ b/unitTests/source/xodel/unitRelations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Documents/GitHub/xule/unitTests/source/xodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB717AF-BA54-704E-95E5-EFD1FF7E516A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270152F-96C7-7C49-8ECE-A67C8A6322EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="500" windowWidth="29800" windowHeight="18960" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="121">
   <si>
     <t>Relationship</t>
   </si>
@@ -312,9 +312,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>seconds</t>
-  </si>
-  <si>
     <t>http://www.xbrl.org/2009/utr</t>
   </si>
   <si>
@@ -322,6 +319,87 @@
   </si>
   <si>
     <t>dtr-concept</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>Customary</t>
+  </si>
+  <si>
+    <t>SI measure for measuring the duration of elapsed time using the seconds unit.</t>
+  </si>
+  <si>
+    <t>Non SI measure for measuring the duration of elapsed time using the hour unit.</t>
+  </si>
+  <si>
+    <t>Non SI measure for measuring the duration of elapsed time using the minute unit.</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>lumen</t>
+  </si>
+  <si>
+    <t>luminousFluxItemType</t>
+  </si>
+  <si>
+    <t>The lumen is an SI unit that measures  luminous flux. A lumen unit measures  the total quantity of visible light emitted by a source per unit of time.</t>
+  </si>
+  <si>
+    <t>u10000</t>
+  </si>
+  <si>
+    <t>u10001</t>
+  </si>
+  <si>
+    <t>u10002</t>
+  </si>
+  <si>
+    <t>u10003</t>
+  </si>
+  <si>
+    <t>electricalResistanceItemType</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t>The ohm is an SI unit that measures electrical resistance. An ohm unit measures  the electrical resistance between two points of a conductor.</t>
+  </si>
+  <si>
+    <t>u10004</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>milli</t>
   </si>
 </sst>
 </file>
@@ -383,13 +461,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -705,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ED81D-0876-FA4F-A294-6F37A8E5F936}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1072,7 +1151,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -1081,7 +1160,7 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1095,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -1104,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1118,7 +1197,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1127,7 +1206,7 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1141,7 +1220,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -1150,7 +1229,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1164,7 +1243,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -1173,7 +1252,7 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1187,7 +1266,7 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -1196,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1279,7 +1358,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -1288,7 +1367,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1302,7 +1381,7 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>31</v>
@@ -1311,7 +1390,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1325,7 +1404,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>29</v>
@@ -1334,7 +1413,7 @@
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1348,7 +1427,7 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -1357,7 +1436,7 @@
         <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2166,6 +2245,98 @@
       </c>
       <c r="G63">
         <v>3600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2196,6 +2367,10 @@
     <hyperlink ref="D39:D59" r:id="rId23" display="http://www.xbrl.org/2023/arcrole/converted-convertee" xr:uid="{BF25258F-BF93-0842-BBFE-5DED93BC3189}"/>
     <hyperlink ref="D60" r:id="rId24" xr:uid="{A7EC9FE9-6098-9649-954F-A48266CD6A9E}"/>
     <hyperlink ref="D61:D63" r:id="rId25" display="http://www.xbrl.org/2023/arcrole/converted-convertee" xr:uid="{2B47E40C-6D6A-8B46-A180-C301F8A55E5D}"/>
+    <hyperlink ref="D64" r:id="rId26" xr:uid="{2D6E2B25-D662-684A-B2C6-14CEF39E2C20}"/>
+    <hyperlink ref="D65" r:id="rId27" xr:uid="{843B6718-F162-F147-8EB0-AEFD71921613}"/>
+    <hyperlink ref="D66" r:id="rId28" xr:uid="{442B8F1D-6D47-E04D-8BBB-FC50BADEE4BD}"/>
+    <hyperlink ref="D67" r:id="rId29" xr:uid="{4F7D3A86-3CAF-AA4F-A071-0EE464A7929C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2203,15 +2378,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F9C4B3-5C38-B04B-85A6-1F2DF86A5E58}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2254,16 +2434,178 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
+      <c r="E2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" tooltip="Omega" display="https://en.wikipedia.org/wiki/Omega" xr:uid="{8DABCBEA-3D9E-0B46-A864-BAFF1F9CDA04}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/unitTests/source/xodel/unitRelations.xlsx
+++ b/unitTests/source/xodel/unitRelations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Documents/GitHub/xule/unitTests/source/xodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270152F-96C7-7C49-8ECE-A67C8A6322EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C7E47-A6F0-7B45-9B82-5FC8715FB66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="29800" windowHeight="18960" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="29800" windowHeight="18960" activeTab="1" xr2:uid="{D8315888-3CE1-6243-B2A8-C1166F657B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="conversion" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="122">
   <si>
     <t>Relationship</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>milli</t>
+  </si>
+  <si>
+    <t>formulaPresentation'</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -469,6 +472,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -786,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013ED81D-0876-FA4F-A294-6F37A8E5F936}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2378,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F9C4B3-5C38-B04B-85A6-1F2DF86A5E58}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2394,7 +2398,7 @@
     <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2428,8 +2432,11 @@
       <c r="K1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2463,8 +2470,11 @@
       <c r="K2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2498,8 +2508,11 @@
       <c r="K3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -2533,8 +2546,11 @@
       <c r="K4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -2568,8 +2584,11 @@
       <c r="K5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2599,6 +2618,9 @@
       </c>
       <c r="K6" t="s">
         <v>118</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
